--- a/results/Briq_Result_WebScraper.xlsx
+++ b/results/Briq_Result_WebScraper.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="312">
   <si>
     <t>HeadLine</t>
   </si>
@@ -281,7 +281,7 @@
     <t>JUL 13, 2020, 1:19 PM PDT</t>
   </si>
   <si>
-    <t>The Cloudvue team has submitted new details about the project, which is made up of three skyscrapers, each 600 feet tall.</t>
+    <t>The three-tower project could open in 2026 if all goes according to plan, a new document says.</t>
   </si>
   <si>
     <t>Two Seattle office buildings are on the market, but one won't really sell</t>
@@ -290,15 +290,15 @@
     <t>JUL 8, 2020, 7:27 AM PDT</t>
   </si>
   <si>
+    <t>Sources: Schultz Family Foundation will move into new Fremont building</t>
+  </si>
+  <si>
+    <t>JUL 6, 2020, 2:11 PM PDT</t>
+  </si>
+  <si>
     <t>Urban Visions listed Weyerhaeuser's HQ for sale before the start of the pandemic.</t>
   </si>
   <si>
-    <t>Sources: Schultz Family Foundation will move into new Fremont building</t>
-  </si>
-  <si>
-    <t>JUL 6, 2020, 2:11 PM PDT</t>
-  </si>
-  <si>
     <t>Among the other tenants is a video gaming company, which has confirmed its tenancy. Sources said Seattle architecture firm Weber Thompson is also moving into the project, though the firm would not confirm that.</t>
   </si>
   <si>
@@ -428,13 +428,16 @@
     <t>JUN 7, 2020, 11:19 AM PDT</t>
   </si>
   <si>
+    <t>Towers have been mostly empty for going on three months as people work from home, a trend so ubiquitous it’s hashtag-worthy — #WFH.</t>
+  </si>
+  <si>
+    <t>Builder of San Antonio data center sues Microsoft</t>
+  </si>
+  <si>
+    <t>JUN 6, 2020, 10:10 PM PDT</t>
+  </si>
+  <si>
     <t>Office providers and their customers have been working for generations to figure out what makes the best workplaces. In the Covid-19 era, this is a moment of truth.</t>
-  </si>
-  <si>
-    <t>Builder of San Antonio data center sues Microsoft</t>
-  </si>
-  <si>
-    <t>JUN 6, 2020, 10:10 PM PDT</t>
   </si>
   <si>
     <t>The construction company argued that Microsoft actively diverted, interrupted and hindered the project’s development and continued progress.</t>
@@ -1408,24 +1411,24 @@
       <c r="B30" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1621,9 +1624,6 @@
       <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1636,18 +1636,24 @@
         <v>141</v>
       </c>
       <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
         <v>142</v>
+      </c>
+      <c r="F46" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1655,13 +1661,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1669,13 +1675,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1683,13 +1689,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1697,13 +1703,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1711,13 +1717,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1725,13 +1731,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1739,13 +1745,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1753,13 +1759,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1767,13 +1773,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1781,13 +1787,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1795,13 +1801,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1809,27 +1815,27 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1837,13 +1843,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1851,13 +1857,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1865,13 +1871,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1879,13 +1885,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1893,13 +1899,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1907,13 +1913,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1921,13 +1927,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1935,27 +1941,27 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1963,13 +1969,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1977,13 +1983,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1991,13 +1997,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -2005,13 +2011,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -2019,13 +2025,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -2033,13 +2039,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -2047,13 +2053,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -2061,13 +2067,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -2075,13 +2081,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -2089,13 +2095,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -2103,13 +2109,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -2117,13 +2123,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -2131,13 +2137,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -2145,13 +2151,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -2159,13 +2165,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -2173,13 +2179,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -2187,13 +2193,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2201,13 +2207,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -2215,13 +2221,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2229,13 +2235,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2243,13 +2249,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2257,13 +2263,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2271,13 +2277,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C92" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2285,13 +2291,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2299,13 +2305,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -2313,27 +2319,27 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2341,13 +2347,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2355,13 +2361,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2369,13 +2375,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2383,13 +2389,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2397,13 +2403,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
